--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="7665" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="488">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2186,15 +2186,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打开选人框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片（本地表情，上传图片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不考虑删除图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,7 +2320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,12 +2363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,7 +2504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2577,7 +2591,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2614,17 +2627,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2666,7 +2679,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2723,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2767,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2811,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3198,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I90"/>
+  <dimension ref="A2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3247,7 +3260,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3257,7 +3270,9 @@
       <c r="E4" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>482</v>
+      </c>
       <c r="G4" s="24" t="s">
         <v>365</v>
       </c>
@@ -3266,7 +3281,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="25" t="s">
         <v>312</v>
       </c>
@@ -3283,7 +3298,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
@@ -3291,7 +3306,9 @@
       <c r="E6" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>482</v>
+      </c>
       <c r="G6" s="24" t="s">
         <v>371</v>
       </c>
@@ -3300,7 +3317,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>313</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3317,7 +3334,7 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="66"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
@@ -3325,12 +3342,14 @@
       <c r="E8" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>482</v>
+      </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="66"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="67" t="s">
         <v>329</v>
       </c>
       <c r="D9" s="34"/>
@@ -3343,20 +3362,22 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>482</v>
+      </c>
       <c r="G10" s="24" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
         <v>375</v>
@@ -3367,8 +3388,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="66"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="67" t="s">
         <v>315</v>
       </c>
       <c r="D12" s="34"/>
@@ -3381,8 +3402,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
         <v>380</v>
@@ -3393,7 +3414,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="66"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="25" t="s">
         <v>316</v>
       </c>
@@ -3407,7 +3428,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>317</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3421,7 +3442,7 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="66"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="25" t="s">
         <v>318</v>
       </c>
@@ -3435,10 +3456,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
@@ -3451,8 +3472,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="66"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>320</v>
@@ -3463,8 +3484,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
         <v>4</v>
@@ -3475,8 +3496,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="66"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="34"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -3487,8 +3508,8 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="66"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>321</v>
@@ -3499,8 +3520,8 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="66"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="67" t="s">
         <v>322</v>
       </c>
       <c r="D22" s="39"/>
@@ -3513,8 +3534,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="66"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>21</v>
@@ -3525,8 +3546,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="66"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>392</v>
@@ -3537,8 +3558,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="66"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -3549,8 +3570,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="66"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>393</v>
@@ -3561,8 +3582,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="66"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -3573,7 +3594,7 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25" t="s">
         <v>325</v>
       </c>
@@ -3585,10 +3606,10 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="34"/>
@@ -3601,8 +3622,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="66"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="38"/>
       <c r="E30" s="24" t="s">
         <v>156</v>
@@ -3611,8 +3632,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="66"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
         <v>353</v>
@@ -3623,8 +3644,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="66"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3637,8 +3658,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="66"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>354</v>
@@ -3649,7 +3670,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="66"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3684,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="66"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
@@ -3677,8 +3698,8 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="66"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="39"/>
@@ -3691,8 +3712,8 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="66"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
         <v>357</v>
@@ -3703,8 +3724,8 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="66"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
         <v>358</v>
@@ -3715,7 +3736,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="66"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="25" t="s">
         <v>359</v>
       </c>
@@ -3727,7 +3748,7 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -3743,7 +3764,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="66"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
@@ -3757,7 +3778,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="66"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="25" t="s">
         <v>321</v>
       </c>
@@ -3771,7 +3792,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="66"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="25" t="s">
         <v>8</v>
       </c>
@@ -3785,7 +3806,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="66"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="25" t="s">
         <v>326</v>
       </c>
@@ -3799,8 +3820,8 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="66"/>
-      <c r="C45" s="68" t="s">
+      <c r="B45" s="65"/>
+      <c r="C45" s="67" t="s">
         <v>327</v>
       </c>
       <c r="D45" s="34"/>
@@ -3813,8 +3834,8 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
         <v>343</v>
@@ -3825,8 +3846,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="66"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="67" t="s">
         <v>334</v>
       </c>
       <c r="D47" s="39"/>
@@ -3837,8 +3858,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="66"/>
-      <c r="C48" s="68"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>391</v>
@@ -3847,8 +3868,8 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="66"/>
-      <c r="C49" s="68"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
         <v>416</v>
@@ -3857,7 +3878,7 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="65" t="s">
         <v>394</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -3873,8 +3894,8 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="66"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="67" t="s">
         <v>417</v>
       </c>
       <c r="D51" s="34"/>
@@ -3887,8 +3908,8 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
         <v>380</v>
@@ -3899,7 +3920,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="65" t="s">
         <v>421</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -3913,8 +3934,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="66"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="38"/>
@@ -3925,8 +3946,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="66"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33" t="s">
         <v>6</v>
@@ -3935,8 +3956,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="66"/>
-      <c r="C56" s="68"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="38"/>
       <c r="E56" s="33" t="s">
         <v>5</v>
@@ -3945,8 +3966,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="66"/>
-      <c r="C57" s="68" t="s">
+      <c r="B57" s="65"/>
+      <c r="C57" s="67" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="38"/>
@@ -3959,8 +3980,8 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="66"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
         <v>425</v>
@@ -3971,7 +3992,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="65" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -3985,8 +4006,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="66"/>
-      <c r="C60" s="68" t="s">
+      <c r="B60" s="65"/>
+      <c r="C60" s="67" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="38"/>
@@ -3997,8 +4018,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="66"/>
-      <c r="C61" s="68"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
         <v>430</v>
@@ -4007,7 +4028,7 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="65" t="s">
         <v>432</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -4021,7 +4042,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="66"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="24" t="s">
         <v>436</v>
       </c>
@@ -4064,8 +4085,8 @@
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="71" t="s">
-        <v>481</v>
+      <c r="B69" s="68" t="s">
+        <v>480</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>366</v>
@@ -4079,7 +4100,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="72"/>
+      <c r="B70" s="69"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4092,7 +4113,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="72"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4105,8 +4126,8 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="72"/>
-      <c r="C72" s="68" t="s">
+      <c r="B72" s="69"/>
+      <c r="C72" s="67" t="s">
         <v>329</v>
       </c>
       <c r="D72" s="34"/>
@@ -4118,24 +4139,24 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="72"/>
-      <c r="C73" s="68"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="72"/>
-      <c r="C74" s="68"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="72"/>
-      <c r="C75" s="68" t="s">
+      <c r="B75" s="69"/>
+      <c r="C75" s="67" t="s">
         <v>315</v>
       </c>
       <c r="D75" s="34"/>
@@ -4147,8 +4168,8 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="72"/>
-      <c r="C76" s="68"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
         <v>380</v>
@@ -4158,8 +4179,8 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="72"/>
-      <c r="C77" s="68" t="s">
+      <c r="B77" s="69"/>
+      <c r="C77" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
@@ -4171,19 +4192,19 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="72"/>
-      <c r="C78" s="68"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="F78" s="54" t="s">
-        <v>476</v>
+      <c r="F78" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="72"/>
-      <c r="C79" s="68"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
@@ -4193,8 +4214,8 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="72"/>
-      <c r="C80" s="68"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
@@ -4204,20 +4225,20 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="72"/>
+      <c r="B81" s="69"/>
       <c r="C81" s="46" t="s">
         <v>325</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F81" s="54" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="72"/>
+      <c r="B82" s="69"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4230,18 +4251,18 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="72"/>
+      <c r="B83" s="69"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
         <v>354</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>475</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="72"/>
+      <c r="B84" s="69"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4249,12 +4270,12 @@
       <c r="E84" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="F84" s="56" t="s">
-        <v>480</v>
+      <c r="F84" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="72"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4267,7 +4288,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="72"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="46" t="s">
         <v>326</v>
       </c>
@@ -4280,32 +4301,32 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="72"/>
-      <c r="C87" s="68" t="s">
+      <c r="B87" s="69"/>
+      <c r="C87" s="67" t="s">
         <v>327</v>
       </c>
       <c r="D87" s="34"/>
       <c r="E87" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="54" t="s">
-        <v>476</v>
+      <c r="F87" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="72"/>
-      <c r="C88" s="68"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="F88" s="54" t="s">
-        <v>476</v>
+      <c r="F88" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="72"/>
-      <c r="C89" s="68" t="s">
+      <c r="B89" s="69"/>
+      <c r="C89" s="67" t="s">
         <v>417</v>
       </c>
       <c r="D89" s="34"/>
@@ -4317,8 +4338,8 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="72"/>
-      <c r="C90" s="68"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>380</v>
@@ -4327,25 +4348,33 @@
         <v>476</v>
       </c>
     </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="C95" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="C96" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4358,6 +4387,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4393,7 +4439,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>335</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -4401,19 +4447,19 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>339</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4421,13 +4467,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="66"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="24" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>342</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4435,19 +4481,19 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="66"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="24" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="66"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
         <v>345</v>
       </c>
@@ -4516,46 +4562,46 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="59" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="63"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4642,7 +4688,7 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4734,7 +4780,7 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4870,7 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4933,7 +4979,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5025,7 +5071,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +5180,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5226,7 +5272,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="57"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5335,7 +5381,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5427,7 +5473,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="57"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -7132,7 +7178,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7140,13 +7186,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7154,7 +7200,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="65"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="24" t="s">
         <v>224</v>
       </c>
@@ -7198,7 +7244,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>227</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7206,19 +7252,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="66"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>231</v>
       </c>
@@ -7281,7 +7327,7 @@
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7289,13 +7335,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
-      <c r="B7" s="67"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="29" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>208</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7303,19 +7349,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="67"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="67"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7323,19 +7369,19 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="67"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="67"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="24" t="s">
         <v>216</v>
       </c>
@@ -7387,7 +7433,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>442</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7404,7 +7450,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="66"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
@@ -7419,7 +7465,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>203</v>
       </c>
@@ -7434,7 +7480,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>204</v>
       </c>
@@ -7449,7 +7495,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="66"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="24" t="s">
         <v>190</v>
       </c>
@@ -7464,7 +7510,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>443</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7481,7 +7527,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="66"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
@@ -7496,7 +7542,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="66"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
         <v>186</v>
       </c>
@@ -7511,7 +7557,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>226</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7528,7 +7574,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="66"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
         <v>234</v>
       </c>
@@ -7543,7 +7589,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>444</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -7560,7 +7606,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="66"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="24" t="s">
         <v>193</v>
       </c>
@@ -7575,7 +7621,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -7592,7 +7638,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="66"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="24" t="s">
         <v>195</v>
       </c>
@@ -7607,7 +7653,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="66"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
@@ -7622,7 +7668,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>446</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -7631,37 +7677,37 @@
       <c r="D18" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="67" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="66"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="24" t="s">
         <v>199</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="66"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="24" t="s">
         <v>160</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="66"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="24" t="s">
         <v>198</v>
       </c>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="7650" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="7650" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="489">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2186,35 +2186,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>打开选人框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片（本地表情，上传图片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不考虑删除图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>七天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开选人框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片（本地表情，上传图片）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不考虑删除图片</t>
+    <t>黏贴之后直接上传，然后从服务器取回src绑定进img标签进行绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2627,17 +2631,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2679,7 +2683,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2727,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2771,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2815,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3211,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I99"/>
+  <dimension ref="A2:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3271,7 +3275,7 @@
         <v>367</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>365</v>
@@ -3307,7 +3311,7 @@
         <v>370</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>371</v>
@@ -3343,7 +3347,7 @@
         <v>374</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G8" s="24"/>
     </row>
@@ -3369,7 +3373,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>377</v>
@@ -3645,7 +3649,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="65"/>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3659,7 +3663,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="65"/>
-      <c r="C33" s="71"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>354</v>
@@ -4085,8 +4089,8 @@
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="68" t="s">
-        <v>480</v>
+      <c r="B69" s="70" t="s">
+        <v>487</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>366</v>
@@ -4100,7 +4104,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="69"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4113,7 +4117,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="69"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4126,7 +4130,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="69"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="67" t="s">
         <v>329</v>
       </c>
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="69"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="67"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4147,7 +4151,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="69"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="67"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4155,7 +4159,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="69"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="67" t="s">
         <v>315</v>
       </c>
@@ -4168,7 +4172,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="69"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="67"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4179,7 +4183,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="69"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="67" t="s">
         <v>15</v>
       </c>
@@ -4192,7 +4196,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="69"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="67"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4203,7 +4207,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="69"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="67"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4214,7 +4218,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="69"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="67"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4225,20 +4229,20 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="69"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="46" t="s">
         <v>325</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="F81" s="54" t="s">
-        <v>476</v>
+        <v>480</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="69"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4255,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="69"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4262,7 +4266,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="69"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4279,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="69"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4283,12 +4287,12 @@
       <c r="E85" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="F85" s="54" t="s">
-        <v>476</v>
+      <c r="F85" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="69"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="46" t="s">
         <v>326</v>
       </c>
@@ -4301,7 +4305,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="69"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="67" t="s">
         <v>327</v>
       </c>
@@ -4314,7 +4318,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="69"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="67"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4325,7 +4329,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="69"/>
+      <c r="B89" s="71"/>
       <c r="C89" s="67" t="s">
         <v>417</v>
       </c>
@@ -4333,48 +4337,70 @@
       <c r="E89" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F89" s="54" t="s">
-        <v>476</v>
+      <c r="F89" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="69"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="67"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="F90" s="54" t="s">
-        <v>476</v>
+      <c r="F90" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="C95" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="C96" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4387,23 +4413,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7402,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7412,7 +7421,7 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="5.125" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="15" customFormat="1">

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="7650" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="495">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2170,10 +2170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>running</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2219,6 +2215,34 @@
   </si>
   <si>
     <t>黏贴之后直接上传，然后从服务器取回src绑定进img标签进行绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushIM-Webapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到的插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoji表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从图片库中选取的文件，先上传再绑定至页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2324,7 +2348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2361,12 +2385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,7 +2526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2593,7 +2611,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2631,17 +2648,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2683,7 +2700,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2744,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2788,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2832,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3116,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3215,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I102"/>
+  <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3264,7 +3281,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3275,7 +3292,7 @@
         <v>367</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>365</v>
@@ -3285,7 +3302,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="25" t="s">
         <v>312</v>
       </c>
@@ -3302,7 +3319,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="65"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>370</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>371</v>
@@ -3321,7 +3338,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>313</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3338,7 +3355,7 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="65"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
@@ -3347,13 +3364,13 @@
         <v>374</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="66" t="s">
         <v>329</v>
       </c>
       <c r="D9" s="34"/>
@@ -3366,22 +3383,22 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="65"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
         <v>375</v>
@@ -3392,8 +3409,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="65"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="66" t="s">
         <v>315</v>
       </c>
       <c r="D12" s="34"/>
@@ -3406,8 +3423,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
         <v>380</v>
@@ -3418,7 +3435,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="25" t="s">
         <v>316</v>
       </c>
@@ -3432,7 +3449,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>317</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3446,7 +3463,7 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="65"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="25" t="s">
         <v>318</v>
       </c>
@@ -3460,10 +3477,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
@@ -3476,8 +3493,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="65"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>320</v>
@@ -3488,8 +3505,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
         <v>4</v>
@@ -3500,8 +3517,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="34"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -3512,8 +3529,8 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="65"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>321</v>
@@ -3524,8 +3541,8 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="66" t="s">
         <v>322</v>
       </c>
       <c r="D22" s="39"/>
@@ -3538,8 +3555,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="65"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>21</v>
@@ -3550,8 +3567,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="65"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>392</v>
@@ -3562,8 +3579,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="65"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -3574,8 +3591,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="65"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>393</v>
@@ -3586,8 +3603,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="65"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -3598,7 +3615,7 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="65"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="25" t="s">
         <v>325</v>
       </c>
@@ -3610,10 +3627,10 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="34"/>
@@ -3626,8 +3643,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="65"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="38"/>
       <c r="E30" s="24" t="s">
         <v>156</v>
@@ -3636,8 +3653,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="65"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
         <v>353</v>
@@ -3648,8 +3665,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="65"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3662,8 +3679,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="65"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>354</v>
@@ -3674,7 +3691,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="65"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +3705,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="65"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
@@ -3702,8 +3719,8 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="65"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="66" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="39"/>
@@ -3716,8 +3733,8 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="65"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
         <v>357</v>
@@ -3728,8 +3745,8 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="65"/>
-      <c r="C38" s="67"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
         <v>358</v>
@@ -3740,7 +3757,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="65"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="25" t="s">
         <v>359</v>
       </c>
@@ -3752,7 +3769,7 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="64" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -3768,7 +3785,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="65"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3799,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="65"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="25" t="s">
         <v>321</v>
       </c>
@@ -3796,7 +3813,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="65"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="25" t="s">
         <v>8</v>
       </c>
@@ -3810,7 +3827,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="65"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="25" t="s">
         <v>326</v>
       </c>
@@ -3824,8 +3841,8 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="65"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="66" t="s">
         <v>327</v>
       </c>
       <c r="D45" s="34"/>
@@ -3838,8 +3855,8 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="65"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
         <v>343</v>
@@ -3850,8 +3867,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="65"/>
-      <c r="C47" s="67" t="s">
+      <c r="B47" s="64"/>
+      <c r="C47" s="66" t="s">
         <v>334</v>
       </c>
       <c r="D47" s="39"/>
@@ -3862,8 +3879,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="65"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>391</v>
@@ -3872,8 +3889,8 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="65"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
         <v>416</v>
@@ -3882,7 +3899,7 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="64" t="s">
         <v>394</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -3898,8 +3915,8 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="65"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="64"/>
+      <c r="C51" s="66" t="s">
         <v>417</v>
       </c>
       <c r="D51" s="34"/>
@@ -3912,8 +3929,8 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="65"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
         <v>380</v>
@@ -3924,7 +3941,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -3938,8 +3955,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="65"/>
-      <c r="C54" s="67" t="s">
+      <c r="B54" s="64"/>
+      <c r="C54" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="38"/>
@@ -3950,8 +3967,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="65"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33" t="s">
         <v>6</v>
@@ -3960,8 +3977,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="65"/>
-      <c r="C56" s="67"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="38"/>
       <c r="E56" s="33" t="s">
         <v>5</v>
@@ -3970,8 +3987,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="65"/>
-      <c r="C57" s="67" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="66" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="38"/>
@@ -3984,8 +4001,8 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="65"/>
-      <c r="C58" s="67"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
         <v>425</v>
@@ -3996,7 +4013,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -4010,8 +4027,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="65"/>
-      <c r="C60" s="67" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="38"/>
@@ -4022,8 +4039,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="65"/>
-      <c r="C61" s="67"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
         <v>430</v>
@@ -4032,7 +4049,7 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>432</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -4046,7 +4063,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="65"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="24" t="s">
         <v>436</v>
       </c>
@@ -4059,7 +4076,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="F66" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -4067,7 +4084,7 @@
         <v>474</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -4084,13 +4101,13 @@
         <v>352</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="G68" s="55"/>
+        <v>478</v>
+      </c>
+      <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="70" t="s">
-        <v>487</v>
+      <c r="B69" s="67" t="s">
+        <v>486</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>366</v>
@@ -4104,7 +4121,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="71"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4117,7 +4134,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="71"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4130,8 +4147,8 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="71"/>
-      <c r="C72" s="67" t="s">
+      <c r="B72" s="68"/>
+      <c r="C72" s="66" t="s">
         <v>329</v>
       </c>
       <c r="D72" s="34"/>
@@ -4143,24 +4160,24 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="71"/>
-      <c r="C73" s="67"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="71"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="71"/>
-      <c r="C75" s="67" t="s">
+      <c r="B75" s="68"/>
+      <c r="C75" s="66" t="s">
         <v>315</v>
       </c>
       <c r="D75" s="34"/>
@@ -4172,8 +4189,8 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="71"/>
-      <c r="C76" s="67"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
         <v>380</v>
@@ -4183,8 +4200,8 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="71"/>
-      <c r="C77" s="67" t="s">
+      <c r="B77" s="68"/>
+      <c r="C77" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
@@ -4196,8 +4213,8 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="71"/>
-      <c r="C78" s="67"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
         <v>320</v>
@@ -4207,8 +4224,8 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="71"/>
-      <c r="C79" s="67"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
@@ -4218,8 +4235,8 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="71"/>
-      <c r="C80" s="67"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
@@ -4229,20 +4246,20 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="71"/>
+      <c r="B81" s="68"/>
       <c r="C81" s="46" t="s">
         <v>325</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F81" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="71"/>
+      <c r="B82" s="68"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4250,12 +4267,12 @@
       <c r="E82" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F82" s="54" t="s">
-        <v>476</v>
+      <c r="F82" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="71"/>
+      <c r="B83" s="68"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4266,7 +4283,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="71"/>
+      <c r="B84" s="68"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4279,7 +4296,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="71"/>
+      <c r="B85" s="68"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4309,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="71"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="46" t="s">
         <v>326</v>
       </c>
@@ -4305,8 +4322,8 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="71"/>
-      <c r="C87" s="67" t="s">
+      <c r="B87" s="68"/>
+      <c r="C87" s="66" t="s">
         <v>327</v>
       </c>
       <c r="D87" s="34"/>
@@ -4318,8 +4335,8 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="71"/>
-      <c r="C88" s="67"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
         <v>343</v>
@@ -4329,8 +4346,8 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="71"/>
-      <c r="C89" s="67" t="s">
+      <c r="B89" s="68"/>
+      <c r="C89" s="66" t="s">
         <v>417</v>
       </c>
       <c r="D89" s="34"/>
@@ -4342,8 +4359,8 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="71"/>
-      <c r="C90" s="67"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>380</v>
@@ -4354,53 +4371,41 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="C95" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="C96" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4413,6 +4418,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4448,7 +4470,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>335</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -4456,19 +4478,19 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>339</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4476,13 +4498,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="65"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="24" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>342</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4490,19 +4512,19 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="65"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="65"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="24" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="65"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="24" t="s">
         <v>345</v>
       </c>
@@ -4528,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4552,6 +4574,34 @@
       <c r="A3" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="B3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>493</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4564,53 +4614,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AD43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4697,7 +4747,7 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4789,7 +4839,7 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4879,7 +4929,7 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4988,7 +5038,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5080,7 +5130,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5189,7 +5239,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5281,7 +5331,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5390,7 +5440,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5482,7 +5532,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -5897,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A116:B119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="Z55" sqref="Z55"/>
     </sheetView>
   </sheetViews>
@@ -6053,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7187,7 +7237,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7195,13 +7245,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="64"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7209,7 +7259,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="64"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="24" t="s">
         <v>224</v>
       </c>
@@ -7253,7 +7303,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7261,19 +7311,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="65"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
         <v>231</v>
       </c>
@@ -7301,7 +7351,7 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7336,7 +7386,7 @@
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7344,13 +7394,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
-      <c r="B7" s="66"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="29" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>208</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7358,19 +7408,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="66"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7378,19 +7428,19 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="66"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="66"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="66"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="24" t="s">
         <v>216</v>
       </c>
@@ -7412,7 +7462,7 @@
   <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7442,7 +7492,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>442</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7459,7 +7509,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="65"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
@@ -7474,7 +7524,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="65"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
         <v>203</v>
       </c>
@@ -7489,7 +7539,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="65"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
         <v>204</v>
       </c>
@@ -7504,7 +7554,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="65"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="24" t="s">
         <v>190</v>
       </c>
@@ -7519,7 +7569,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>443</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7536,7 +7586,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="65"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
@@ -7551,7 +7601,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="65"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="24" t="s">
         <v>186</v>
       </c>
@@ -7566,7 +7616,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7583,7 +7633,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="65"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="24" t="s">
         <v>234</v>
       </c>
@@ -7598,7 +7648,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>444</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -7615,7 +7665,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="24" t="s">
         <v>193</v>
       </c>
@@ -7630,7 +7680,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -7647,7 +7697,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="65"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="24" t="s">
         <v>195</v>
       </c>
@@ -7662,7 +7712,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="65"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
@@ -7677,7 +7727,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>446</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -7686,37 +7736,37 @@
       <c r="D18" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="66" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="66" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="24" t="s">
         <v>199</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="24" t="s">
         <v>160</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="65"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="24" t="s">
         <v>198</v>
       </c>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="客户端" sheetId="10" r:id="rId10"/>
     <sheet name="服务端" sheetId="11" r:id="rId11"/>
     <sheet name="开发规范" sheetId="12" r:id="rId12"/>
+    <sheet name="消息解析" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="500">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,14 +821,6 @@
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示/隐藏会话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2243,6 +2236,34 @@
   </si>
   <si>
     <t>从图片库中选取的文件，先上传再绑定至页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道(讨论组)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信网页版，图片表情，保存在本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示/隐藏会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业微信没有图文混排，但是企业微信的图片拆分，会根据图片所在的位置进行拆分，所以对于收到消息的人来说，这个差距并不大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,7 +2547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2648,17 +2669,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2700,7 +2724,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2768,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2812,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2856,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,6 +2878,105 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="609600"/>
+          <a:ext cx="2600325" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="457200" y="2238375"/>
+          <a:ext cx="7886700" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3116,7 +3239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3139,26 +3262,26 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>469</v>
-      </c>
       <c r="D3" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D4" s="48">
         <v>43109</v>
@@ -3234,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3253,31 +3376,31 @@
     <row r="2" spans="1:9">
       <c r="A2" s="27"/>
       <c r="B2" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1">
       <c r="A3" s="28"/>
       <c r="B3" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3285,17 +3408,17 @@
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>140</v>
@@ -3304,18 +3427,18 @@
     <row r="5" spans="1:9">
       <c r="B5" s="64"/>
       <c r="C5" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3325,32 +3448,32 @@
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I7" s="32"/>
     </row>
@@ -3361,25 +3484,25 @@
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="64"/>
       <c r="C9" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3387,13 +3510,13 @@
       <c r="C10" s="66"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
-        <v>39</v>
+        <v>493</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3401,25 +3524,25 @@
       <c r="C11" s="66"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="64"/>
       <c r="C12" s="66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3427,37 +3550,37 @@
       <c r="C13" s="66"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="64"/>
       <c r="C14" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="64" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -3465,31 +3588,31 @@
     <row r="16" spans="1:9">
       <c r="B16" s="64"/>
       <c r="C16" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="64" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -3497,11 +3620,11 @@
       <c r="C18" s="66"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -3513,7 +3636,7 @@
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -3525,7 +3648,7 @@
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -3533,25 +3656,25 @@
       <c r="C21" s="66"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="64"/>
       <c r="C22" s="66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -3563,7 +3686,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -3571,11 +3694,11 @@
       <c r="C24" s="66"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -3587,7 +3710,7 @@
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -3595,11 +3718,11 @@
       <c r="C26" s="66"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -3611,24 +3734,24 @@
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="64"/>
       <c r="C28" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>8</v>
@@ -3639,7 +3762,7 @@
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -3657,16 +3780,16 @@
       <c r="C31" s="66"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="64"/>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="67" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3675,19 +3798,19 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="64"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -3697,11 +3820,11 @@
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3711,11 +3834,11 @@
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -3725,11 +3848,11 @@
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -3737,11 +3860,11 @@
       <c r="C37" s="66"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -3749,21 +3872,21 @@
       <c r="C38" s="66"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="64"/>
       <c r="C39" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -3777,11 +3900,11 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3791,25 +3914,25 @@
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="64"/>
       <c r="C42" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -3819,39 +3942,39 @@
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="64"/>
       <c r="C44" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="64"/>
       <c r="C45" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -3859,21 +3982,21 @@
       <c r="C46" s="66"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="64"/>
       <c r="C47" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
@@ -3883,7 +4006,7 @@
       <c r="C48" s="66"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
@@ -3893,39 +4016,39 @@
       <c r="C49" s="66"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="64" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="64"/>
       <c r="C51" s="66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -3933,23 +4056,23 @@
       <c r="C52" s="66"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="64" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -3961,7 +4084,7 @@
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -3989,15 +4112,15 @@
     <row r="57" spans="2:7">
       <c r="B57" s="64"/>
       <c r="C57" s="66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" s="38"/>
       <c r="E57" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -4005,23 +4128,23 @@
       <c r="C58" s="66"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -4033,7 +4156,7 @@
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
@@ -4043,21 +4166,21 @@
       <c r="C61" s="66"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -4065,102 +4188,102 @@
     <row r="63" spans="2:7">
       <c r="B63" s="64"/>
       <c r="C63" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
     </row>
     <row r="66" spans="2:7">
       <c r="F66" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="E67" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>180</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="67" t="s">
-        <v>486</v>
+      <c r="B69" s="69" t="s">
+        <v>484</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="68"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="68"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="68"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="68"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="66"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4168,98 +4291,98 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="68"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="66"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="68"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D75" s="34"/>
       <c r="E75" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="68"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="66"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="68"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
       <c r="E77" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F77" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="68"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="66"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F78" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="68"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="66"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="68"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="66"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="68"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F81" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="68"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4272,98 +4395,98 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="68"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F83" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="68"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F84" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="68"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F85" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="68"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="68"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D87" s="34"/>
       <c r="E87" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F87" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="68"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="66"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F88" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="68"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D89" s="34"/>
       <c r="E89" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F89" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="68"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="66"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F90" s="49" t="s">
         <v>12</v>
@@ -4371,41 +4494,58 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="C95" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="C96" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4418,23 +4558,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4459,7 +4582,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="51" customFormat="1">
@@ -4471,70 +4594,70 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="64"/>
       <c r="C8" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="64"/>
       <c r="C10" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="64"/>
       <c r="C11" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="64"/>
       <c r="C12" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4564,43 +4687,43 @@
   <sheetData>
     <row r="2" spans="1:3" s="15" customFormat="1">
       <c r="B2" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4610,11 +4733,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5947,7 +6098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A116:B119"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="Z55" sqref="Z55"/>
     </sheetView>
   </sheetViews>
@@ -6103,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6414,24 +6565,24 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6731,7 +6882,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="18" customFormat="1">
@@ -6747,13 +6898,13 @@
     </row>
     <row r="75" spans="1:3" s="19" customFormat="1">
       <c r="A75" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6785,150 +6936,150 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="C80" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B87" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="18" customFormat="1">
@@ -6944,73 +7095,73 @@
     </row>
     <row r="95" spans="1:3" s="19" customFormat="1">
       <c r="A95" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="18" customFormat="1">
@@ -7026,62 +7177,62 @@
     </row>
     <row r="104" spans="1:3" s="19" customFormat="1">
       <c r="A104" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="18" customFormat="1">
@@ -7097,40 +7248,40 @@
     </row>
     <row r="112" spans="1:3" s="19" customFormat="1">
       <c r="A112" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="19" customFormat="1">
       <c r="A113" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="18" customFormat="1">
@@ -7146,57 +7297,57 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="23" customFormat="1">
       <c r="A120" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>290</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="23" customFormat="1">
       <c r="A121" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="23" customFormat="1">
       <c r="A122" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122" s="23" t="s">
         <v>296</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7208,10 +7359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7224,51 +7375,54 @@
     <row r="2" spans="1:3" s="15" customFormat="1">
       <c r="A2" s="44"/>
       <c r="B2" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="63"/>
       <c r="C5" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="63"/>
       <c r="C7" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="20" customFormat="1">
       <c r="A10" s="43"/>
       <c r="B10" s="15" t="s">
-        <v>201</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7285,7 +7439,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7298,42 +7452,42 @@
     <row r="2" spans="1:3" s="20" customFormat="1">
       <c r="A2" s="43"/>
       <c r="B2" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="64"/>
       <c r="C4" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +7505,7 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7366,7 +7520,7 @@
     <row r="2" spans="1:3" s="20" customFormat="1">
       <c r="A2" s="43"/>
       <c r="B2" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -7375,74 +7529,74 @@
         <v>181</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
       <c r="B7" s="65"/>
       <c r="C7" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="65"/>
       <c r="C9" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="65"/>
       <c r="C13" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="65"/>
       <c r="C14" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7461,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7476,13 +7630,13 @@
   <sheetData>
     <row r="2" spans="2:6" s="15" customFormat="1">
       <c r="B2" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>181</v>
@@ -7493,16 +7647,16 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>182</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>188</v>
@@ -7514,10 +7668,10 @@
         <v>183</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>448</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>450</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>188</v>
@@ -7526,13 +7680,13 @@
     <row r="5" spans="2:6">
       <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>188</v>
@@ -7541,13 +7695,13 @@
     <row r="6" spans="2:6">
       <c r="B6" s="64"/>
       <c r="C6" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>188</v>
@@ -7559,10 +7713,10 @@
         <v>190</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>188</v>
@@ -7570,16 +7724,16 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="64" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>184</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>189</v>
@@ -7591,10 +7745,10 @@
         <v>185</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>189</v>
@@ -7606,10 +7760,10 @@
         <v>186</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>189</v>
@@ -7617,16 +7771,16 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>188</v>
@@ -7635,30 +7789,30 @@
     <row r="12" spans="2:6">
       <c r="B12" s="64"/>
       <c r="C12" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>192</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>188</v>
@@ -7670,10 +7824,10 @@
         <v>193</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>189</v>
@@ -7681,16 +7835,16 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="64" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>194</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>188</v>
@@ -7702,10 +7856,10 @@
         <v>195</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>189</v>
@@ -7717,10 +7871,10 @@
         <v>196</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>189</v>
@@ -7728,16 +7882,16 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>448</v>
-      </c>
       <c r="E18" s="66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F18" s="66" t="s">
         <v>197</v>
@@ -7746,10 +7900,10 @@
     <row r="19" spans="2:7">
       <c r="B19" s="64"/>
       <c r="C19" s="24" t="s">
-        <v>199</v>
+        <v>495</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -7757,10 +7911,10 @@
     <row r="20" spans="2:7">
       <c r="B20" s="64"/>
       <c r="C20" s="24" t="s">
-        <v>160</v>
+        <v>497</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
@@ -7768,13 +7922,13 @@
     <row r="21" spans="2:7">
       <c r="B21" s="64"/>
       <c r="C21" s="24" t="s">
-        <v>198</v>
+        <v>498</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>189</v>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="503">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2264,6 +2264,18 @@
   </si>
   <si>
     <t>企业微信没有图文混排，但是企业微信的图片拆分，会根据图片所在的位置进行拆分，所以对于收到消息的人来说，这个差距并不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片，发送者方使用base64来展示，接收者方从服务器端获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页版的钉钉与微信并没有找到那种在输入框中放图片或附件的，都是如果是图片，就直接弹出个框出来，问你是否发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页版的QQ甚至不能发送图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2633,6 +2645,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,20 +2684,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2724,7 +2736,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2780,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2824,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2868,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3404,7 +3416,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3425,7 +3437,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="25" t="s">
         <v>310</v>
       </c>
@@ -3442,7 +3454,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
@@ -3461,7 +3473,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>311</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3478,7 +3490,7 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
@@ -3492,8 +3504,8 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="64"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="67" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="34"/>
@@ -3506,8 +3518,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="64"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
         <v>493</v>
@@ -3520,8 +3532,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="64"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
         <v>373</v>
@@ -3532,8 +3544,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="64"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="67" t="s">
         <v>313</v>
       </c>
       <c r="D12" s="34"/>
@@ -3546,8 +3558,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="64"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
         <v>378</v>
@@ -3558,7 +3570,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="25" t="s">
         <v>314</v>
       </c>
@@ -3572,7 +3584,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="65" t="s">
         <v>315</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3586,7 +3598,7 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="64"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="25" t="s">
         <v>316</v>
       </c>
@@ -3600,10 +3612,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
@@ -3616,8 +3628,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="64"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>318</v>
@@ -3628,8 +3640,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="64"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
         <v>4</v>
@@ -3640,8 +3652,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="64"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="34"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -3652,8 +3664,8 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="64"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>319</v>
@@ -3664,8 +3676,8 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="64"/>
-      <c r="C22" s="66" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="67" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="39"/>
@@ -3678,8 +3690,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="64"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>21</v>
@@ -3690,8 +3702,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="64"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>390</v>
@@ -3702,8 +3714,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="64"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -3714,8 +3726,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>391</v>
@@ -3726,8 +3738,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="64"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -3738,7 +3750,7 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="64"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25" t="s">
         <v>323</v>
       </c>
@@ -3750,10 +3762,10 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="34"/>
@@ -3766,8 +3778,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="64"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="38"/>
       <c r="E30" s="24" t="s">
         <v>156</v>
@@ -3776,8 +3788,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="64"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
         <v>351</v>
@@ -3788,8 +3800,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="64"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3802,8 +3814,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="64"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -3814,7 +3826,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="64"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +3840,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="64"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
@@ -3842,8 +3854,8 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="64"/>
-      <c r="C36" s="66" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="39"/>
@@ -3856,8 +3868,8 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="64"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
         <v>355</v>
@@ -3868,8 +3880,8 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="64"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
         <v>356</v>
@@ -3880,7 +3892,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="64"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="25" t="s">
         <v>357</v>
       </c>
@@ -3892,7 +3904,7 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="65" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -3908,7 +3920,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="64"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3934,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="64"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="25" t="s">
         <v>319</v>
       </c>
@@ -3936,7 +3948,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="64"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="25" t="s">
         <v>8</v>
       </c>
@@ -3950,7 +3962,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="64"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="25" t="s">
         <v>324</v>
       </c>
@@ -3964,8 +3976,8 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="64"/>
-      <c r="C45" s="66" t="s">
+      <c r="B45" s="65"/>
+      <c r="C45" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="34"/>
@@ -3978,8 +3990,8 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="64"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
         <v>341</v>
@@ -3990,8 +4002,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="64"/>
-      <c r="C47" s="66" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="67" t="s">
         <v>332</v>
       </c>
       <c r="D47" s="39"/>
@@ -4002,8 +4014,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="64"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>389</v>
@@ -4012,8 +4024,8 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="64"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
         <v>414</v>
@@ -4022,7 +4034,7 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="65" t="s">
         <v>392</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4038,8 +4050,8 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="64"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="67" t="s">
         <v>415</v>
       </c>
       <c r="D51" s="34"/>
@@ -4052,8 +4064,8 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="64"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
         <v>378</v>
@@ -4064,7 +4076,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="65" t="s">
         <v>419</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -4078,8 +4090,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="64"/>
-      <c r="C54" s="66" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="38"/>
@@ -4090,8 +4102,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="64"/>
-      <c r="C55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33" t="s">
         <v>6</v>
@@ -4100,8 +4112,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="64"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="38"/>
       <c r="E56" s="33" t="s">
         <v>5</v>
@@ -4110,8 +4122,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="64"/>
-      <c r="C57" s="66" t="s">
+      <c r="B57" s="65"/>
+      <c r="C57" s="67" t="s">
         <v>312</v>
       </c>
       <c r="D57" s="38"/>
@@ -4124,8 +4136,8 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="64"/>
-      <c r="C58" s="66"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
         <v>423</v>
@@ -4136,7 +4148,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="65" t="s">
         <v>326</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -4150,8 +4162,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="64"/>
-      <c r="C60" s="66" t="s">
+      <c r="B60" s="65"/>
+      <c r="C60" s="67" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="38"/>
@@ -4162,8 +4174,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="64"/>
-      <c r="C61" s="66"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
         <v>428</v>
@@ -4172,7 +4184,7 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="65" t="s">
         <v>430</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -4186,7 +4198,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="64"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="24" t="s">
         <v>434</v>
       </c>
@@ -4229,7 +4241,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="68" t="s">
         <v>484</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4244,7 +4256,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="70"/>
+      <c r="B70" s="69"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4257,7 +4269,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="70"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4270,8 +4282,8 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="70"/>
-      <c r="C72" s="66" t="s">
+      <c r="B72" s="69"/>
+      <c r="C72" s="67" t="s">
         <v>327</v>
       </c>
       <c r="D72" s="34"/>
@@ -4283,24 +4295,24 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="70"/>
-      <c r="C73" s="66"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="70"/>
-      <c r="C74" s="66"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="70"/>
-      <c r="C75" s="66" t="s">
+      <c r="B75" s="69"/>
+      <c r="C75" s="67" t="s">
         <v>313</v>
       </c>
       <c r="D75" s="34"/>
@@ -4312,8 +4324,8 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="70"/>
-      <c r="C76" s="66"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
         <v>378</v>
@@ -4323,8 +4335,8 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="70"/>
-      <c r="C77" s="66" t="s">
+      <c r="B77" s="69"/>
+      <c r="C77" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
@@ -4336,8 +4348,8 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="70"/>
-      <c r="C78" s="66"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
         <v>318</v>
@@ -4347,8 +4359,8 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="70"/>
-      <c r="C79" s="66"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
@@ -4358,8 +4370,8 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="70"/>
-      <c r="C80" s="66"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
@@ -4369,7 +4381,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="70"/>
+      <c r="B81" s="69"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4382,7 +4394,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="70"/>
+      <c r="B82" s="69"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4395,7 +4407,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="70"/>
+      <c r="B83" s="69"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4406,7 +4418,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="70"/>
+      <c r="B84" s="69"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4431,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="70"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4432,7 +4444,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="70"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4445,8 +4457,8 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="70"/>
-      <c r="C87" s="66" t="s">
+      <c r="B87" s="69"/>
+      <c r="C87" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D87" s="34"/>
@@ -4458,8 +4470,8 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="70"/>
-      <c r="C88" s="66"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
         <v>341</v>
@@ -4469,8 +4481,8 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="70"/>
-      <c r="C89" s="66" t="s">
+      <c r="B89" s="69"/>
+      <c r="C89" s="67" t="s">
         <v>415</v>
       </c>
       <c r="D89" s="34"/>
@@ -4482,8 +4494,8 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="70"/>
-      <c r="C90" s="66"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>378</v>
@@ -4529,23 +4541,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4558,6 +4553,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4593,7 +4605,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -4601,19 +4613,19 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>337</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4621,13 +4633,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="24" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>340</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4635,19 +4647,19 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="64"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="64"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
         <v>343</v>
       </c>
@@ -4735,10 +4747,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4751,6 +4763,21 @@
     <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4772,46 +4799,46 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="57" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="61"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4898,7 +4925,7 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4990,7 +5017,7 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5080,7 +5107,7 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5189,7 +5216,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5281,7 +5308,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5390,7 +5417,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5482,7 +5509,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5591,7 +5618,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5683,7 +5710,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -7388,7 +7415,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>218</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7396,13 +7423,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7410,7 +7437,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="24" t="s">
         <v>222</v>
       </c>
@@ -7422,7 +7449,7 @@
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="71"/>
+      <c r="C20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7457,7 +7484,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7465,19 +7492,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>229</v>
       </c>
@@ -7540,7 +7567,7 @@
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7548,13 +7575,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="29" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7562,19 +7589,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7582,19 +7609,19 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="24" t="s">
         <v>214</v>
       </c>
@@ -7646,7 +7673,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>440</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7663,7 +7690,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
@@ -7678,7 +7705,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>201</v>
       </c>
@@ -7693,7 +7720,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="s">
         <v>202</v>
       </c>
@@ -7708,7 +7735,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="24" t="s">
         <v>190</v>
       </c>
@@ -7723,7 +7750,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>441</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7740,7 +7767,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
@@ -7755,7 +7782,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="64"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="s">
         <v>186</v>
       </c>
@@ -7770,7 +7797,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7787,7 +7814,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="s">
         <v>232</v>
       </c>
@@ -7802,7 +7829,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -7819,7 +7846,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="24" t="s">
         <v>193</v>
       </c>
@@ -7834,7 +7861,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="65" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -7851,7 +7878,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="64"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="24" t="s">
         <v>195</v>
       </c>
@@ -7866,7 +7893,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
@@ -7881,7 +7908,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="65" t="s">
         <v>444</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -7890,37 +7917,37 @@
       <c r="D18" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="67" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="67" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="24" t="s">
         <v>495</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="24" t="s">
         <v>497</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="64"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="24" t="s">
         <v>498</v>
       </c>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="服务端" sheetId="11" r:id="rId11"/>
     <sheet name="开发规范" sheetId="12" r:id="rId12"/>
     <sheet name="消息解析" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="508">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2203,79 +2204,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黏贴之后直接上传，然后从服务器取回src绑定进img标签进行绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushIM-Webapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到的插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoji表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从图片库中选取的文件，先上传再绑定至页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道(讨论组)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信网页版，图片表情，保存在本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示/隐藏会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在本地的图片表情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个符号会对应一个表情，仿江工评论用的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏贴或选择图片：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用中括号将图片id包起来，然后反解析的时候，再调用一个服务器端的API，判断是否有这个图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>七天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黏贴之后直接上传，然后从服务器取回src绑定进img标签进行绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PushIM-Webapp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extjs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用到的插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emoji表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从图片库中选取的文件，先上传再绑定至页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道(讨论组)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信网页版，图片表情，保存在本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示/隐藏会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企业微信没有图文混排，但是企业微信的图片拆分，会根据图片所在的位置进行拆分，所以对于收到消息的人来说，这个差距并不大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传图片，发送者方使用base64来展示，接收者方从服务器端获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网页版的钉钉与微信并没有找到那种在输入框中放图片或附件的，都是如果是图片，就直接弹出个框出来，问你是否发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网页版的QQ甚至不能发送图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我目前用的情况是这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端的session</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2283,7 +2304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2397,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2559,7 +2587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2684,18 +2712,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2736,7 +2765,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2809,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2853,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2897,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,6 +3006,241 @@
         <a:xfrm>
           <a:off x="457200" y="2238375"/>
           <a:ext cx="7886700" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="6562725"/>
+          <a:ext cx="2828925" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3562350" y="5829300"/>
+          <a:ext cx="5076825" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="923925" y="7924800"/>
+          <a:ext cx="2981325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>392920</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="8620126"/>
+          <a:ext cx="7860520" cy="4152899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8401050" y="2886075"/>
+          <a:ext cx="5267325" cy="3505200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,7 +3515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3369,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3522,7 +3786,7 @@
       <c r="C10" s="67"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>478</v>
@@ -3801,7 +4065,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="65"/>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -3815,7 +4079,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="65"/>
-      <c r="C33" s="71"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4241,8 +4505,8 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="68" t="s">
-        <v>484</v>
+      <c r="B69" s="70" t="s">
+        <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>364</v>
@@ -4256,7 +4520,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="69"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4269,7 +4533,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="69"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4282,7 +4546,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="69"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="67" t="s">
         <v>327</v>
       </c>
@@ -4295,7 +4559,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="69"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="67"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4303,7 +4567,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="69"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="67"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4311,7 +4575,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="69"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="67" t="s">
         <v>313</v>
       </c>
@@ -4324,7 +4588,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="69"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="67"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4335,7 +4599,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="69"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="67" t="s">
         <v>15</v>
       </c>
@@ -4348,7 +4612,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="69"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="67"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4359,7 +4623,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="69"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="67"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4370,7 +4634,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="69"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="67"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4381,7 +4645,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="69"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4394,7 +4658,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="69"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4407,7 +4671,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="69"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4418,7 +4682,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="69"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4695,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="69"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4444,7 +4708,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="69"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4457,7 +4721,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="69"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="67" t="s">
         <v>325</v>
       </c>
@@ -4470,7 +4734,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="69"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="67"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4481,7 +4745,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="69"/>
+      <c r="B89" s="71"/>
       <c r="C89" s="67" t="s">
         <v>415</v>
       </c>
@@ -4494,7 +4758,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="69"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="67"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -4531,16 +4795,33 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4553,23 +4834,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4710,32 +4974,32 @@
         <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4747,37 +5011,57 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>502</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4785,6 +5069,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7912,7 +8217,7 @@
         <v>444</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>446</v>
@@ -7927,7 +8232,7 @@
     <row r="19" spans="2:7">
       <c r="B19" s="65"/>
       <c r="C19" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>446</v>
@@ -7938,7 +8243,7 @@
     <row r="20" spans="2:7">
       <c r="B20" s="65"/>
       <c r="C20" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>446</v>
@@ -7949,7 +8254,7 @@
     <row r="21" spans="2:7">
       <c r="B21" s="65"/>
       <c r="C21" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>446</v>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -2296,7 +2296,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器端的session</t>
+    <t>企业微信PC版也变为三栏版了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2676,6 +2676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,19 +2713,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2765,7 +2765,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,6 +3260,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="514350" y="247650"/>
+          <a:ext cx="5400675" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3515,7 +3567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3680,7 +3732,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3701,7 +3753,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="25" t="s">
         <v>310</v>
       </c>
@@ -3718,7 +3770,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
@@ -3737,7 +3789,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>311</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3754,7 +3806,7 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
@@ -3768,8 +3820,8 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="68" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="34"/>
@@ -3782,8 +3834,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
         <v>492</v>
@@ -3796,8 +3848,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="65"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
         <v>373</v>
@@ -3808,8 +3860,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="65"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="68" t="s">
         <v>313</v>
       </c>
       <c r="D12" s="34"/>
@@ -3822,8 +3874,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
         <v>378</v>
@@ -3834,7 +3886,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="25" t="s">
         <v>314</v>
       </c>
@@ -3848,7 +3900,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="66" t="s">
         <v>315</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3862,7 +3914,7 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="25" t="s">
         <v>316</v>
       </c>
@@ -3876,10 +3928,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
@@ -3892,8 +3944,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="65"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>318</v>
@@ -3904,8 +3956,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
         <v>4</v>
@@ -3916,8 +3968,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="34"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -3928,8 +3980,8 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="65"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>319</v>
@@ -3940,8 +3992,8 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="68" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="39"/>
@@ -3954,8 +4006,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="65"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>21</v>
@@ -3966,8 +4018,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="65"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>390</v>
@@ -3978,8 +4030,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="65"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -3990,8 +4042,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="65"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>391</v>
@@ -4002,8 +4054,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="65"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -4014,7 +4066,7 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="25" t="s">
         <v>323</v>
       </c>
@@ -4026,10 +4078,10 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="34"/>
@@ -4042,8 +4094,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="65"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="38"/>
       <c r="E30" s="24" t="s">
         <v>156</v>
@@ -4052,8 +4104,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="65"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
         <v>351</v>
@@ -4064,8 +4116,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="65"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="71" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4078,8 +4130,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="65"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4090,7 +4142,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="65"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -4104,7 +4156,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="65"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
@@ -4118,8 +4170,8 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="65"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="39"/>
@@ -4132,8 +4184,8 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="65"/>
-      <c r="C37" s="67"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
         <v>355</v>
@@ -4144,8 +4196,8 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="65"/>
-      <c r="C38" s="67"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
         <v>356</v>
@@ -4156,7 +4208,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="65"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="25" t="s">
         <v>357</v>
       </c>
@@ -4168,7 +4220,7 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="66" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -4184,7 +4236,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="65"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4250,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="25" t="s">
         <v>319</v>
       </c>
@@ -4212,7 +4264,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="65"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="25" t="s">
         <v>8</v>
       </c>
@@ -4226,7 +4278,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="65"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="25" t="s">
         <v>324</v>
       </c>
@@ -4240,8 +4292,8 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="65"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="68" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="34"/>
@@ -4254,8 +4306,8 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="65"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
         <v>341</v>
@@ -4266,8 +4318,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="65"/>
-      <c r="C47" s="67" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D47" s="39"/>
@@ -4278,8 +4330,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="65"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>389</v>
@@ -4288,8 +4340,8 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="65"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
         <v>414</v>
@@ -4298,7 +4350,7 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="66" t="s">
         <v>392</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4314,8 +4366,8 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="65"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="68" t="s">
         <v>415</v>
       </c>
       <c r="D51" s="34"/>
@@ -4328,8 +4380,8 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="65"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
         <v>378</v>
@@ -4340,7 +4392,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="66" t="s">
         <v>419</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -4354,8 +4406,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="65"/>
-      <c r="C54" s="67" t="s">
+      <c r="B54" s="66"/>
+      <c r="C54" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="38"/>
@@ -4366,8 +4418,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="65"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33" t="s">
         <v>6</v>
@@ -4376,8 +4428,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="65"/>
-      <c r="C56" s="67"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="38"/>
       <c r="E56" s="33" t="s">
         <v>5</v>
@@ -4386,8 +4438,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="65"/>
-      <c r="C57" s="67" t="s">
+      <c r="B57" s="66"/>
+      <c r="C57" s="68" t="s">
         <v>312</v>
       </c>
       <c r="D57" s="38"/>
@@ -4400,8 +4452,8 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="65"/>
-      <c r="C58" s="67"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
         <v>423</v>
@@ -4412,7 +4464,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="66" t="s">
         <v>326</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -4426,8 +4478,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="65"/>
-      <c r="C60" s="67" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="68" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="38"/>
@@ -4438,8 +4490,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="65"/>
-      <c r="C61" s="67"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
         <v>428</v>
@@ -4448,7 +4500,7 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="66" t="s">
         <v>430</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -4462,7 +4514,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="65"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="24" t="s">
         <v>434</v>
       </c>
@@ -4505,7 +4557,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="69" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4520,7 +4572,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="71"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4533,7 +4585,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="71"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4546,8 +4598,8 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="71"/>
-      <c r="C72" s="67" t="s">
+      <c r="B72" s="70"/>
+      <c r="C72" s="68" t="s">
         <v>327</v>
       </c>
       <c r="D72" s="34"/>
@@ -4559,24 +4611,24 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="71"/>
-      <c r="C73" s="67"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="68"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="71"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="71"/>
-      <c r="C75" s="67" t="s">
+      <c r="B75" s="70"/>
+      <c r="C75" s="68" t="s">
         <v>313</v>
       </c>
       <c r="D75" s="34"/>
@@ -4588,8 +4640,8 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="71"/>
-      <c r="C76" s="67"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
         <v>378</v>
@@ -4599,8 +4651,8 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="71"/>
-      <c r="C77" s="67" t="s">
+      <c r="B77" s="70"/>
+      <c r="C77" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
@@ -4612,8 +4664,8 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="71"/>
-      <c r="C78" s="67"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="68"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
         <v>318</v>
@@ -4623,8 +4675,8 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="71"/>
-      <c r="C79" s="67"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="68"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
@@ -4634,8 +4686,8 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="71"/>
-      <c r="C80" s="67"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="68"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
@@ -4645,7 +4697,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="71"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4658,7 +4710,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="71"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4723,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="71"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4682,7 +4734,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="71"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4695,7 +4747,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="71"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +4760,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="71"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4721,8 +4773,8 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="71"/>
-      <c r="C87" s="67" t="s">
+      <c r="B87" s="70"/>
+      <c r="C87" s="68" t="s">
         <v>325</v>
       </c>
       <c r="D87" s="34"/>
@@ -4734,8 +4786,8 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="71"/>
-      <c r="C88" s="67"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="68"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
         <v>341</v>
@@ -4745,8 +4797,8 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="71"/>
-      <c r="C89" s="67" t="s">
+      <c r="B89" s="70"/>
+      <c r="C89" s="68" t="s">
         <v>415</v>
       </c>
       <c r="D89" s="34"/>
@@ -4758,8 +4810,8 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="71"/>
-      <c r="C90" s="67"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>378</v>
@@ -4805,23 +4857,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4834,6 +4869,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,7 +4921,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -4877,19 +4929,19 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="24" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4897,13 +4949,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="24" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="66" t="s">
         <v>340</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4911,19 +4963,19 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="24" t="s">
         <v>343</v>
       </c>
@@ -5013,8 +5065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5045,7 +5097,7 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="56" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5055,7 +5107,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="56" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5076,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5090,6 +5142,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5104,46 +5158,46 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -5230,7 +5284,7 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5322,7 +5376,7 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5412,7 +5466,7 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5521,7 +5575,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5613,7 +5667,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5722,7 +5776,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5814,7 +5868,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5923,7 +5977,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -6015,7 +6069,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -7720,7 +7774,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>218</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7728,13 +7782,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7742,7 +7796,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="24" t="s">
         <v>222</v>
       </c>
@@ -7789,7 +7843,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7797,19 +7851,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="24" t="s">
         <v>229</v>
       </c>
@@ -7872,7 +7926,7 @@
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7880,13 +7934,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="29" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -7894,19 +7948,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -7914,19 +7968,19 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="66"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="24" t="s">
         <v>214</v>
       </c>
@@ -7978,7 +8032,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>440</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -7995,7 +8049,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
@@ -8010,7 +8064,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="24" t="s">
         <v>201</v>
       </c>
@@ -8025,7 +8079,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="24" t="s">
         <v>202</v>
       </c>
@@ -8040,7 +8094,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="24" t="s">
         <v>190</v>
       </c>
@@ -8055,7 +8109,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>441</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -8072,7 +8126,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
@@ -8087,7 +8141,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24" t="s">
         <v>186</v>
       </c>
@@ -8102,7 +8156,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -8119,7 +8173,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="24" t="s">
         <v>232</v>
       </c>
@@ -8134,7 +8188,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="66" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -8151,7 +8205,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="24" t="s">
         <v>193</v>
       </c>
@@ -8166,7 +8220,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="66" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -8183,7 +8237,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="24" t="s">
         <v>195</v>
       </c>
@@ -8198,7 +8252,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
@@ -8213,7 +8267,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>444</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -8222,37 +8276,37 @@
       <c r="D18" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="68" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="24" t="s">
         <v>494</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="24" t="s">
         <v>496</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="24" t="s">
         <v>497</v>
       </c>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -20,7 +20,7 @@
     <sheet name="服务端" sheetId="11" r:id="rId11"/>
     <sheet name="开发规范" sheetId="12" r:id="rId12"/>
     <sheet name="消息解析" sheetId="14" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId14"/>
+    <sheet name="页面" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="538">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2299,12 +2299,135 @@
     <t>企业微信PC版也变为三栏版了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近会话列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示会话过的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示未读消息提示，头像右上角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有消息过来时，会自动重新排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键弹出层重写（个人和群组的有差异）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分三栏，顶上有搜索功能，底部有些快捷入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写右键事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击事件（单击结构树，单击用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击事件（双击人，可直接跳转到与该人的对话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先结构树的展示（结构树的加载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容视图的切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要聊天视图，分为上中下三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的会话对象显示，并能够快速发起多人会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中，聊天内容展示区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户消息，图片可以单击显示预览效果并下载原图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击用户头像，显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息时间处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下，编辑框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持@某人、黏贴图片上传、图片表情、url识别、图片拖拽上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,6 +2530,27 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2575,7 +2719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2586,8 +2730,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2713,23 +2864,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="4" builtinId="3"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2765,7 +2921,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2965,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +3009,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +3053,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,15 +3421,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>514351</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3291,8 +3447,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="514350" y="247650"/>
-          <a:ext cx="5400675" cy="3829050"/>
+          <a:off x="514351" y="247650"/>
+          <a:ext cx="4848224" cy="3437365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3567,7 +3723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3685,7 +3841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B69" sqref="B69:B90"/>
     </sheetView>
   </sheetViews>
@@ -4117,7 +4273,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="66"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4131,7 +4287,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="66"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4557,7 +4713,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="71" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4572,7 +4728,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="70"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4585,7 +4741,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="70"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4598,7 +4754,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="70"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="68" t="s">
         <v>327</v>
       </c>
@@ -4611,7 +4767,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="70"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="68"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4619,7 +4775,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="70"/>
+      <c r="B74" s="72"/>
       <c r="C74" s="68"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4627,7 +4783,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="70"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="68" t="s">
         <v>313</v>
       </c>
@@ -4640,7 +4796,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="70"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="68"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4651,7 +4807,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="70"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="68" t="s">
         <v>15</v>
       </c>
@@ -4664,7 +4820,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="70"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="68"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4675,7 +4831,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="70"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="68"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4686,7 +4842,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="70"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="68"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4697,7 +4853,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="70"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4710,7 +4866,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="70"/>
+      <c r="B82" s="72"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4723,7 +4879,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="70"/>
+      <c r="B83" s="72"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4734,7 +4890,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="70"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4903,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="70"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +4916,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="70"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4773,7 +4929,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="70"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="68" t="s">
         <v>325</v>
       </c>
@@ -4786,7 +4942,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="70"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="68"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4797,7 +4953,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="70"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="68" t="s">
         <v>415</v>
       </c>
@@ -4810,7 +4966,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="70"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="68"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -4857,6 +5013,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -4869,23 +5042,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5126,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5139,11 +5295,145 @@
         <v>507</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="K19" s="73"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="E27" s="74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="E29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="E30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="E31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" t="s">
+        <v>517</v>
+      </c>
+      <c r="E34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="E35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>523</v>
+      </c>
+      <c r="B39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>529</v>
+      </c>
+      <c r="E46" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>531</v>
+      </c>
+      <c r="E48" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="E49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="E50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="E51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>536</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E53" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -2427,7 +2427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2544,13 +2544,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2719,7 +2712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2733,12 +2726,8 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2828,6 +2817,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2864,26 +2855,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="千位分隔" xfId="4" builtinId="3"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
@@ -2921,7 +2908,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2952,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +2996,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3040,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3888,7 +3875,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3909,7 +3896,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="25" t="s">
         <v>310</v>
       </c>
@@ -3926,7 +3913,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
@@ -3945,7 +3932,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="68" t="s">
         <v>311</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -3962,7 +3949,7 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
@@ -3976,8 +3963,8 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="66"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="70" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="34"/>
@@ -3990,8 +3977,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24" t="s">
         <v>492</v>
@@ -4004,8 +3991,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24" t="s">
         <v>373</v>
@@ -4016,8 +4003,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="66"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="70" t="s">
         <v>313</v>
       </c>
       <c r="D12" s="34"/>
@@ -4030,8 +4017,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="34"/>
       <c r="E13" s="30" t="s">
         <v>378</v>
@@ -4042,7 +4029,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="66"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="25" t="s">
         <v>314</v>
       </c>
@@ -4056,7 +4043,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>315</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -4070,7 +4057,7 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="66"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="25" t="s">
         <v>316</v>
       </c>
@@ -4084,10 +4071,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="34"/>
@@ -4100,8 +4087,8 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="66"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>318</v>
@@ -4112,8 +4099,8 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
         <v>4</v>
@@ -4124,8 +4111,8 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="66"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="34"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -4136,8 +4123,8 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="66"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>319</v>
@@ -4148,8 +4135,8 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="66"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="70" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="39"/>
@@ -4162,8 +4149,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="66"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>21</v>
@@ -4174,8 +4161,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="66"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>390</v>
@@ -4186,8 +4173,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="66"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>20</v>
@@ -4198,8 +4185,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="66"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>391</v>
@@ -4210,8 +4197,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="66"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -4222,7 +4209,7 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="66"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="25" t="s">
         <v>323</v>
       </c>
@@ -4234,10 +4221,10 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="34"/>
@@ -4250,8 +4237,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="66"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="38"/>
       <c r="E30" s="24" t="s">
         <v>156</v>
@@ -4260,8 +4247,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="66"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="38"/>
       <c r="E31" s="24" t="s">
         <v>351</v>
@@ -4272,8 +4259,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="66"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4286,8 +4273,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="66"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4298,7 +4285,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="66"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -4312,7 +4299,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="66"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="25" t="s">
         <v>6</v>
       </c>
@@ -4326,8 +4313,8 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="66"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="70" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="39"/>
@@ -4340,8 +4327,8 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="66"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="34"/>
       <c r="E37" s="24" t="s">
         <v>355</v>
@@ -4352,8 +4339,8 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="66"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="39"/>
       <c r="E38" s="24" t="s">
         <v>356</v>
@@ -4364,7 +4351,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="66"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="25" t="s">
         <v>357</v>
       </c>
@@ -4376,7 +4363,7 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="68" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -4392,7 +4379,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
@@ -4406,7 +4393,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="66"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="25" t="s">
         <v>319</v>
       </c>
@@ -4420,7 +4407,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="66"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="25" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4421,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="66"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="25" t="s">
         <v>324</v>
       </c>
@@ -4448,8 +4435,8 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="66"/>
-      <c r="C45" s="68" t="s">
+      <c r="B45" s="68"/>
+      <c r="C45" s="70" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="34"/>
@@ -4462,8 +4449,8 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="34"/>
       <c r="E46" s="24" t="s">
         <v>341</v>
@@ -4474,8 +4461,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="66"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="70" t="s">
         <v>332</v>
       </c>
       <c r="D47" s="39"/>
@@ -4486,8 +4473,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="66"/>
-      <c r="C48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>389</v>
@@ -4496,8 +4483,8 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="66"/>
-      <c r="C49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="39"/>
       <c r="E49" s="24" t="s">
         <v>414</v>
@@ -4506,7 +4493,7 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="68" t="s">
         <v>392</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4522,8 +4509,8 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="66"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="70" t="s">
         <v>415</v>
       </c>
       <c r="D51" s="34"/>
@@ -4536,8 +4523,8 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="34"/>
       <c r="E52" s="33" t="s">
         <v>378</v>
@@ -4548,7 +4535,7 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="68" t="s">
         <v>419</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -4562,8 +4549,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="66"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="38"/>
@@ -4574,8 +4561,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="66"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="38"/>
       <c r="E55" s="33" t="s">
         <v>6</v>
@@ -4584,8 +4571,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="66"/>
-      <c r="C56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="38"/>
       <c r="E56" s="33" t="s">
         <v>5</v>
@@ -4594,8 +4581,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="66"/>
-      <c r="C57" s="68" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="70" t="s">
         <v>312</v>
       </c>
       <c r="D57" s="38"/>
@@ -4608,8 +4595,8 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="66"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="38"/>
       <c r="E58" s="33" t="s">
         <v>423</v>
@@ -4620,7 +4607,7 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="68" t="s">
         <v>326</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -4634,8 +4621,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="66"/>
-      <c r="C60" s="68" t="s">
+      <c r="B60" s="68"/>
+      <c r="C60" s="70" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="38"/>
@@ -4646,8 +4633,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="66"/>
-      <c r="C61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="38"/>
       <c r="E61" s="33" t="s">
         <v>428</v>
@@ -4656,7 +4643,7 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="68" t="s">
         <v>430</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -4670,7 +4657,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="66"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="24" t="s">
         <v>434</v>
       </c>
@@ -4755,7 +4742,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="72"/>
-      <c r="C72" s="68" t="s">
+      <c r="C72" s="70" t="s">
         <v>327</v>
       </c>
       <c r="D72" s="34"/>
@@ -4768,7 +4755,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="72"/>
-      <c r="C73" s="68"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
         <v>39</v>
@@ -4776,7 +4763,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="72"/>
-      <c r="C74" s="68"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
         <v>471</v>
@@ -4784,7 +4771,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="72"/>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="70" t="s">
         <v>313</v>
       </c>
       <c r="D75" s="34"/>
@@ -4797,7 +4784,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="72"/>
-      <c r="C76" s="68"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
         <v>378</v>
@@ -4808,7 +4795,7 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="72"/>
-      <c r="C77" s="68" t="s">
+      <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="34"/>
@@ -4821,7 +4808,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="72"/>
-      <c r="C78" s="68"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
         <v>318</v>
@@ -4832,7 +4819,7 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="72"/>
-      <c r="C79" s="68"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
         <v>4</v>
@@ -4843,7 +4830,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="72"/>
-      <c r="C80" s="68"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
         <v>5</v>
@@ -4930,7 +4917,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="72"/>
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="70" t="s">
         <v>325</v>
       </c>
       <c r="D87" s="34"/>
@@ -4943,7 +4930,7 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="72"/>
-      <c r="C88" s="68"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
         <v>341</v>
@@ -4954,7 +4941,7 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="72"/>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="70" t="s">
         <v>415</v>
       </c>
       <c r="D89" s="34"/>
@@ -4967,7 +4954,7 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="72"/>
-      <c r="C90" s="68"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
         <v>378</v>
@@ -5013,23 +5000,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -5042,6 +5012,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,7 +5064,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -5085,19 +5072,19 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="24" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="68" t="s">
         <v>337</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -5105,13 +5092,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="24" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="68" t="s">
         <v>340</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5119,19 +5106,19 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="24" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="66"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="24" t="s">
         <v>343</v>
       </c>
@@ -5284,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5296,7 +5283,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="K19" s="73"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
@@ -5307,7 +5294,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="58" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5422,18 +5409,15 @@
       <c r="A53" t="s">
         <v>536</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E53" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5448,46 +5432,46 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:30">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="59" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="63"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -5574,7 +5558,7 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5666,7 +5650,7 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5740,7 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5865,7 +5849,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5957,7 +5941,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6066,7 +6050,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6158,7 +6142,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6251,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -6359,7 +6343,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -8064,7 +8048,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>218</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -8072,13 +8056,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -8086,7 +8070,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="65"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="24" t="s">
         <v>222</v>
       </c>
@@ -8133,7 +8117,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -8141,19 +8125,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="66"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="24" t="s">
         <v>229</v>
       </c>
@@ -8216,7 +8200,7 @@
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -8224,13 +8208,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5">
-      <c r="B7" s="67"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="29" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="69" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -8238,19 +8222,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="67"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="67"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -8258,19 +8242,19 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="67"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="67"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="24" t="s">
         <v>214</v>
       </c>
@@ -8322,7 +8306,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>440</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -8339,7 +8323,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="66"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
@@ -8354,7 +8338,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="24" t="s">
         <v>201</v>
       </c>
@@ -8369,7 +8353,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="24" t="s">
         <v>202</v>
       </c>
@@ -8384,7 +8368,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="24" t="s">
         <v>190</v>
       </c>
@@ -8399,7 +8383,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>441</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -8416,7 +8400,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
@@ -8431,7 +8415,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="66"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="24" t="s">
         <v>186</v>
       </c>
@@ -8446,7 +8430,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="68" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -8463,7 +8447,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="24" t="s">
         <v>232</v>
       </c>
@@ -8478,7 +8462,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="68" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -8495,7 +8479,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="66"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="24" t="s">
         <v>193</v>
       </c>
@@ -8510,7 +8494,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -8527,7 +8511,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="66"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="24" t="s">
         <v>195</v>
       </c>
@@ -8542,7 +8526,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="66"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
@@ -8557,7 +8541,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="68" t="s">
         <v>444</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -8566,37 +8550,37 @@
       <c r="D18" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="70" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="66"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="24" t="s">
         <v>494</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="24" t="s">
         <v>496</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="66"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="24" t="s">
         <v>497</v>
       </c>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -21,6 +21,7 @@
     <sheet name="开发规范" sheetId="12" r:id="rId12"/>
     <sheet name="消息解析" sheetId="14" r:id="rId13"/>
     <sheet name="页面" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="543">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2417,6 +2418,26 @@
   </si>
   <si>
     <t>支持@某人、黏贴图片上传、图片表情、url识别、图片拖拽上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端，目前我只需要掌握：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.写API接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.能够从数据库中取出想要的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.能够正确的返回给服务器端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框中的图片应该使用本地的方式先去展示，万一连接出问题了，用户的体验也不至于太差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2855,17 +2876,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2908,7 +2929,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2973,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +3017,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3061,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4260,7 +4281,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="68"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4274,7 +4295,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="68"/>
-      <c r="C33" s="74"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4700,7 +4721,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="73" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4715,7 +4736,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="72"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4728,7 +4749,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="72"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4741,7 +4762,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="72"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="70" t="s">
         <v>327</v>
       </c>
@@ -4754,7 +4775,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="72"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="70"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4762,7 +4783,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="72"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="70"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4770,7 +4791,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="72"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="70" t="s">
         <v>313</v>
       </c>
@@ -4783,7 +4804,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="72"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="70"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4794,7 +4815,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="72"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
@@ -4807,7 +4828,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="72"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="70"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4818,7 +4839,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="72"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="70"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4829,7 +4850,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="72"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="70"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4840,7 +4861,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="72"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4853,7 +4874,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="72"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4866,7 +4887,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="72"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4877,7 +4898,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="72"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4890,7 +4911,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="72"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4924,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="72"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4916,7 +4937,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="72"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="70" t="s">
         <v>325</v>
       </c>
@@ -4929,7 +4950,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="72"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="70"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4940,7 +4961,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="72"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="70" t="s">
         <v>415</v>
       </c>
@@ -4953,7 +4974,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="72"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="70"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -5000,6 +5021,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -5012,23 +5050,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5413,11 +5434,52 @@
         <v>537</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="E54" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="544">
   <si>
     <t>会话类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2438,6 +2438,10 @@
   </si>
   <si>
     <t>框中的图片应该使用本地的方式先去展示，万一连接出问题了，用户的体验也不至于太差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2876,17 +2880,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2929,7 +2933,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2977,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3021,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3065,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,7 +3735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3849,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B90"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3992,7 +3996,9 @@
       <c r="E9" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G9" s="24" t="s">
         <v>374</v>
       </c>
@@ -4032,7 +4038,9 @@
       <c r="E12" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G12" s="24" t="s">
         <v>379</v>
       </c>
@@ -4044,7 +4052,9 @@
       <c r="E13" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G13" s="29" t="s">
         <v>385</v>
       </c>
@@ -4102,7 +4112,9 @@
       <c r="E17" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G17" s="24" t="s">
         <v>386</v>
       </c>
@@ -4126,7 +4138,9 @@
       <c r="E19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G19" s="24" t="s">
         <v>387</v>
       </c>
@@ -4138,7 +4152,9 @@
       <c r="E20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G20" s="24" t="s">
         <v>388</v>
       </c>
@@ -4238,7 +4254,9 @@
       <c r="E28" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
@@ -4281,7 +4299,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="68"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4295,12 +4313,14 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="68"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="F33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G33" s="24" t="s">
         <v>401</v>
       </c>
@@ -4314,7 +4334,9 @@
       <c r="E34" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G34" s="24" t="s">
         <v>402</v>
       </c>
@@ -4354,7 +4376,9 @@
       <c r="E37" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G37" s="24" t="s">
         <v>403</v>
       </c>
@@ -4394,7 +4418,9 @@
       <c r="E40" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G40" s="24" t="s">
         <v>409</v>
       </c>
@@ -4408,7 +4434,9 @@
       <c r="E41" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G41" s="24" t="s">
         <v>410</v>
       </c>
@@ -4436,7 +4464,9 @@
       <c r="E43" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G43" s="24" t="s">
         <v>405</v>
       </c>
@@ -4450,7 +4480,9 @@
       <c r="E44" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G44" s="24" t="s">
         <v>331</v>
       </c>
@@ -4464,7 +4496,9 @@
       <c r="E45" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G45" s="24" t="s">
         <v>411</v>
       </c>
@@ -4476,7 +4510,9 @@
       <c r="E46" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G46" s="24" t="s">
         <v>412</v>
       </c>
@@ -4538,7 +4574,9 @@
       <c r="E51" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="G51" s="24" t="s">
         <v>416</v>
       </c>
@@ -4721,7 +4759,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="71" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4736,7 +4774,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="74"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4749,7 +4787,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="74"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4762,7 +4800,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="74"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="70" t="s">
         <v>327</v>
       </c>
@@ -4775,7 +4813,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="74"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="70"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4783,7 +4821,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="74"/>
+      <c r="B74" s="72"/>
       <c r="C74" s="70"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4791,7 +4829,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="74"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="70" t="s">
         <v>313</v>
       </c>
@@ -4804,7 +4842,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="74"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="70"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4815,7 +4853,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="74"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
@@ -4828,7 +4866,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="74"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="70"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4839,7 +4877,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="74"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="70"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4850,7 +4888,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="74"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="70"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4861,7 +4899,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="74"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4874,7 +4912,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="74"/>
+      <c r="B82" s="72"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4887,7 +4925,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="74"/>
+      <c r="B83" s="72"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4898,7 +4936,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="74"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +4949,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="74"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4924,7 +4962,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="74"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4937,7 +4975,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="74"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="70" t="s">
         <v>325</v>
       </c>
@@ -4950,7 +4988,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="74"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="70"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4961,7 +4999,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="74"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="70" t="s">
         <v>415</v>
       </c>
@@ -4974,7 +5012,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="74"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="70"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -5021,23 +5059,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -5050,6 +5071,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -5480,6 +5518,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -2571,7 +2571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2608,6 +2608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,7 +2758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2880,18 +2886,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2933,7 +2941,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2985,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3029,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3073,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3853,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -4299,7 +4307,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="68"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4313,7 +4321,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="68"/>
-      <c r="C33" s="74"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4759,7 +4767,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="73" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4774,7 +4782,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="72"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4787,7 +4795,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="72"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4800,7 +4808,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="72"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="70" t="s">
         <v>327</v>
       </c>
@@ -4813,7 +4821,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="72"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="70"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4821,7 +4829,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="72"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="70"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4829,7 +4837,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="72"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="70" t="s">
         <v>313</v>
       </c>
@@ -4842,7 +4850,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="72"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="70"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4853,7 +4861,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="72"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
@@ -4866,7 +4874,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="72"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="70"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4877,7 +4885,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="72"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="70"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4888,7 +4896,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="72"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="70"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4899,7 +4907,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="72"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4912,7 +4920,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="72"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4925,7 +4933,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="72"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4936,7 +4944,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="72"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4949,7 +4957,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="72"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4962,7 +4970,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="72"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4975,7 +4983,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="72"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="70" t="s">
         <v>325</v>
       </c>
@@ -4988,7 +4996,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="72"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="70"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -4999,7 +5007,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="72"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="70" t="s">
         <v>415</v>
       </c>
@@ -5012,7 +5020,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="72"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="70"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -5059,6 +5067,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -5071,23 +5096,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7015,8 +7023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7641,8 +7649,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:3" s="76" customFormat="1">
+      <c r="A73" s="75" t="s">
         <v>284</v>
       </c>
     </row>

--- a/IM开发文档.xlsx
+++ b/IM开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6120" windowHeight="6690" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="13" r:id="rId1"/>
@@ -2452,7 +2452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2568,6 +2568,13 @@
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2758,7 +2765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2886,20 +2893,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2941,7 +2947,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D771CCE-8DDF-4145-8AB6-F12CE8838315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2991,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EE168-256A-428E-A5B0-277ACAC637A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3035,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DE0FC-59E8-4FB9-B4E8-DEA9C7E0162F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3079,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD3E50D-ECD2-4221-90EE-600D5457D69A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="68"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="38"/>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="68"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="34"/>
       <c r="E33" s="24" t="s">
         <v>352</v>
@@ -4767,7 +4773,7 @@
       <c r="G68" s="54"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="71" t="s">
         <v>502</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4782,7 +4788,7 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="74"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="46" t="s">
         <v>182</v>
       </c>
@@ -4795,7 +4801,7 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="74"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="46" t="s">
         <v>185</v>
       </c>
@@ -4808,7 +4814,7 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="74"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="70" t="s">
         <v>327</v>
       </c>
@@ -4821,7 +4827,7 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="74"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="70"/>
       <c r="D73" s="34"/>
       <c r="E73" s="52" t="s">
@@ -4829,7 +4835,7 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="74"/>
+      <c r="B74" s="72"/>
       <c r="C74" s="70"/>
       <c r="D74" s="34"/>
       <c r="E74" s="52" t="s">
@@ -4837,7 +4843,7 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="74"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="70" t="s">
         <v>313</v>
       </c>
@@ -4850,7 +4856,7 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="74"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="70"/>
       <c r="D76" s="34"/>
       <c r="E76" s="30" t="s">
@@ -4861,7 +4867,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="74"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="70" t="s">
         <v>15</v>
       </c>
@@ -4874,7 +4880,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="74"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="70"/>
       <c r="D78" s="34"/>
       <c r="E78" s="46" t="s">
@@ -4885,7 +4891,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="74"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="70"/>
       <c r="D79" s="34"/>
       <c r="E79" s="46" t="s">
@@ -4896,7 +4902,7 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="74"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="70"/>
       <c r="D80" s="34"/>
       <c r="E80" s="46" t="s">
@@ -4907,7 +4913,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="74"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="46" t="s">
         <v>323</v>
       </c>
@@ -4920,7 +4926,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="74"/>
+      <c r="B82" s="72"/>
       <c r="C82" s="46" t="s">
         <v>8</v>
       </c>
@@ -4933,7 +4939,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="74"/>
+      <c r="B83" s="72"/>
       <c r="C83" s="47"/>
       <c r="D83" s="34"/>
       <c r="E83" s="24" t="s">
@@ -4944,7 +4950,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="74"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +4963,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="74"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="46" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +4976,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="74"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="46" t="s">
         <v>324</v>
       </c>
@@ -4983,7 +4989,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="74"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="70" t="s">
         <v>325</v>
       </c>
@@ -4996,7 +5002,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="74"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="70"/>
       <c r="D88" s="34"/>
       <c r="E88" s="24" t="s">
@@ -5007,7 +5013,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="74"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="70" t="s">
         <v>415</v>
       </c>
@@ -5020,7 +5026,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="74"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="70"/>
       <c r="D90" s="34"/>
       <c r="E90" s="33" t="s">
@@ -5067,23 +5073,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B69:B90"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="B4:B6"/>
@@ -5096,6 +5085,23 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B69:B90"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7649,7 +7655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="76" customFormat="1">
+    <row r="73" spans="1:3" s="75" customFormat="1">
       <c r="A73" s="75" t="s">
         <v>284</v>
       </c>
@@ -8385,7 +8391,7 @@
   <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C20:C21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
